--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl11-Ccr2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H2">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I2">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J2">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N2">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O2">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P2">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q2">
-        <v>0.07528309462177778</v>
+        <v>0.1987591624186666</v>
       </c>
       <c r="R2">
-        <v>0.6775478515960001</v>
+        <v>1.788832461768</v>
       </c>
       <c r="S2">
-        <v>2.107114777191141E-06</v>
+        <v>6.27316302014701E-06</v>
       </c>
       <c r="T2">
-        <v>2.214205816301025E-06</v>
+        <v>6.304208178318764E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H3">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I3">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J3">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.934284</v>
       </c>
       <c r="O3">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P3">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q3">
-        <v>0.3382975926026666</v>
+        <v>0.254378750392</v>
       </c>
       <c r="R3">
-        <v>3.044678333424</v>
+        <v>2.289408753528</v>
       </c>
       <c r="S3">
-        <v>9.468684304790262E-06</v>
+        <v>8.028607842032411E-06</v>
       </c>
       <c r="T3">
-        <v>9.949916391518423E-06</v>
+        <v>8.068340493575883E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H4">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I4">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J4">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N4">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O4">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P4">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q4">
-        <v>183.50650534202</v>
+        <v>259.913390572832</v>
       </c>
       <c r="R4">
-        <v>1651.55854807818</v>
+        <v>2339.220515155488</v>
       </c>
       <c r="S4">
-        <v>0.005136203168314236</v>
+        <v>0.00820329010417176</v>
       </c>
       <c r="T4">
-        <v>0.005397243212420174</v>
+        <v>0.008243887238025114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H5">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I5">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J5">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N5">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O5">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P5">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q5">
-        <v>0.15983775871</v>
+        <v>0.7754893377049999</v>
       </c>
       <c r="R5">
-        <v>0.9590265522600001</v>
+        <v>4.652936026229999</v>
       </c>
       <c r="S5">
-        <v>4.473733512457458E-06</v>
+        <v>2.447570706482521E-05</v>
       </c>
       <c r="T5">
-        <v>3.134069667550765E-06</v>
+        <v>1.639788967199405E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.086278666666667</v>
+        <v>0.8168139999999999</v>
       </c>
       <c r="H6">
-        <v>3.258836</v>
+        <v>2.450442</v>
       </c>
       <c r="I6">
-        <v>0.01142600940532366</v>
+        <v>0.009738363985633989</v>
       </c>
       <c r="J6">
-        <v>0.01200515265421091</v>
+        <v>0.00977835907772915</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N6">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O6">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P6">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q6">
-        <v>224.1490709120693</v>
+        <v>47.408718527094</v>
       </c>
       <c r="R6">
-        <v>2017.341638208624</v>
+        <v>426.6784667438459</v>
       </c>
       <c r="S6">
-        <v>0.006273756704414987</v>
+        <v>0.001496296403535224</v>
       </c>
       <c r="T6">
-        <v>0.006592611249915361</v>
+        <v>0.001503701401360148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>235.023953</v>
       </c>
       <c r="I7">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J7">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N7">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O7">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P7">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q7">
-        <v>5.429340565798111</v>
+        <v>19.06315842064578</v>
       </c>
       <c r="R7">
-        <v>48.864065092183</v>
+        <v>171.568425785812</v>
       </c>
       <c r="S7">
-        <v>0.000151962984439897</v>
+        <v>0.0006016643408855908</v>
       </c>
       <c r="T7">
-        <v>0.0001596862817590879</v>
+        <v>0.0006046419081142932</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>235.023953</v>
       </c>
       <c r="I8">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J8">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.934284</v>
       </c>
       <c r="O8">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P8">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q8">
         <v>24.39767987829467</v>
@@ -948,10 +948,10 @@
         <v>219.579118904652</v>
       </c>
       <c r="S8">
-        <v>0.0006828719257492137</v>
+        <v>0.000770030530051826</v>
       </c>
       <c r="T8">
-        <v>0.0007175778966336924</v>
+        <v>0.000773841322075844</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>235.023953</v>
       </c>
       <c r="I9">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J9">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N9">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O9">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P9">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q9">
-        <v>13234.30337908908</v>
+        <v>24928.51187257642</v>
       </c>
       <c r="R9">
-        <v>119108.7304118018</v>
+        <v>224356.6068531878</v>
       </c>
       <c r="S9">
-        <v>0.3704177724894214</v>
+        <v>0.7867844527184193</v>
       </c>
       <c r="T9">
-        <v>0.3892437161874387</v>
+        <v>0.7906781579677929</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>235.023953</v>
       </c>
       <c r="I10">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J10">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N10">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O10">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P10">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q10">
-        <v>11.5273373347675</v>
+        <v>74.37783455261584</v>
       </c>
       <c r="R10">
-        <v>69.16402400860501</v>
+        <v>446.267007315695</v>
       </c>
       <c r="S10">
-        <v>0.0003226411316084413</v>
+        <v>0.002347485648240296</v>
       </c>
       <c r="T10">
-        <v>0.0002260259314200459</v>
+        <v>0.001572735388786968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>235.023953</v>
       </c>
       <c r="I11">
-        <v>0.8240322303590443</v>
+        <v>0.9340146796604594</v>
       </c>
       <c r="J11">
-        <v>0.8657994551309391</v>
+        <v>0.9378506425784978</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N11">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O11">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P11">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q11">
-        <v>16165.40406053936</v>
+        <v>4547.010063858671</v>
       </c>
       <c r="R11">
-        <v>145488.6365448542</v>
+        <v>40923.09057472804</v>
       </c>
       <c r="S11">
-        <v>0.4524569818278253</v>
+        <v>0.1435110464228623</v>
       </c>
       <c r="T11">
-        <v>0.4754524488336875</v>
+        <v>0.1442212659917279</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H12">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I12">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J12">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N12">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O12">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P12">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q12">
-        <v>0.06734091752299999</v>
+        <v>0.5675989556697778</v>
       </c>
       <c r="R12">
-        <v>0.606068257707</v>
+        <v>5.108390601028</v>
       </c>
       <c r="S12">
-        <v>1.884819468902066E-06</v>
+        <v>1.791434787535264E-05</v>
       </c>
       <c r="T12">
-        <v>1.980612672786446E-06</v>
+        <v>1.800300391084032E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H13">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I13">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J13">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.934284</v>
       </c>
       <c r="O13">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P13">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q13">
-        <v>0.302608047612</v>
+        <v>0.7264324889986666</v>
       </c>
       <c r="R13">
-        <v>2.723472428508</v>
+        <v>6.537892400988</v>
       </c>
       <c r="S13">
-        <v>8.469761930266785E-06</v>
+        <v>2.292739298740276E-05</v>
       </c>
       <c r="T13">
-        <v>8.90022524244322E-06</v>
+        <v>2.304085800329251E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H14">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I14">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J14">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N14">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O14">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P14">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q14">
-        <v>164.147030661465</v>
+        <v>742.2378282264053</v>
       </c>
       <c r="R14">
-        <v>1477.323275953185</v>
+        <v>6680.140454037648</v>
       </c>
       <c r="S14">
-        <v>0.004594346654803501</v>
+        <v>0.02342623524633461</v>
       </c>
       <c r="T14">
-        <v>0.004827847630934378</v>
+        <v>0.02354216897486287</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H15">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I15">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J15">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N15">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O15">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P15">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q15">
-        <v>0.1429752772575</v>
+        <v>2.214574326325833</v>
       </c>
       <c r="R15">
-        <v>0.857851663545</v>
+        <v>13.287445957955</v>
       </c>
       <c r="S15">
-        <v>4.001765881116279E-06</v>
+        <v>6.989557412206863E-05</v>
       </c>
       <c r="T15">
-        <v>2.803433201759211E-06</v>
+        <v>4.682765282239861E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.971679</v>
+        <v>2.332585666666667</v>
       </c>
       <c r="H16">
-        <v>2.915037</v>
+        <v>6.997757</v>
       </c>
       <c r="I16">
-        <v>0.01022059415658427</v>
+        <v>0.02780996438561621</v>
       </c>
       <c r="J16">
-        <v>0.01073863924961949</v>
+        <v>0.02792417885617889</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N16">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O16">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P16">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q16">
-        <v>200.501907805212</v>
+        <v>135.385653663299</v>
       </c>
       <c r="R16">
-        <v>1804.517170246908</v>
+        <v>1218.470882969691</v>
       </c>
       <c r="S16">
-        <v>0.005611891154500488</v>
+        <v>0.004272991824296777</v>
       </c>
       <c r="T16">
-        <v>0.005897107347568127</v>
+        <v>0.004294138366579494</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H17">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I17">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J17">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N17">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O17">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P17">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q17">
-        <v>0.9535477635933334</v>
+        <v>0.2504396739313334</v>
       </c>
       <c r="R17">
-        <v>5.721286581560001</v>
+        <v>1.502638043588</v>
       </c>
       <c r="S17">
-        <v>2.668905407674154E-05</v>
+        <v>7.904284170681175E-06</v>
       </c>
       <c r="T17">
-        <v>1.869699091477416E-05</v>
+        <v>5.295601039170408E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H18">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I18">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J18">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.934284</v>
       </c>
       <c r="O18">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P18">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q18">
-        <v>4.28493162344</v>
+        <v>0.320521230458</v>
       </c>
       <c r="R18">
-        <v>25.70958974064</v>
+        <v>1.923127382748</v>
       </c>
       <c r="S18">
-        <v>0.0001199318756536903</v>
+        <v>1.011617228415281E-05</v>
       </c>
       <c r="T18">
-        <v>8.401815901909403E-05</v>
+        <v>6.77749070043491E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H19">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I19">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J19">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N19">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O19">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P19">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q19">
-        <v>2324.3228596383</v>
+        <v>327.494964223768</v>
       </c>
       <c r="R19">
-        <v>13945.9371578298</v>
+        <v>1964.969785342608</v>
       </c>
       <c r="S19">
-        <v>0.0650559739754675</v>
+        <v>0.01033627468466312</v>
       </c>
       <c r="T19">
-        <v>0.04557489939034975</v>
+        <v>0.00692495180832241</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H20">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I20">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J20">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N20">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O20">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P20">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q20">
-        <v>2.02453071465</v>
+        <v>0.9771287748887501</v>
       </c>
       <c r="R20">
-        <v>8.098122858600002</v>
+        <v>3.908515099555</v>
       </c>
       <c r="S20">
-        <v>5.666502695124754E-05</v>
+        <v>3.08397762496205E-05</v>
       </c>
       <c r="T20">
-        <v>2.646441973418584E-05</v>
+        <v>1.377439943780083E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.75898</v>
+        <v>1.0291985</v>
       </c>
       <c r="H21">
-        <v>27.51796</v>
+        <v>2.058397</v>
       </c>
       <c r="I21">
-        <v>0.1447236696363304</v>
+        <v>0.01227049194365979</v>
       </c>
       <c r="J21">
-        <v>0.101372794007575</v>
+        <v>0.008213924259590904</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N21">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O21">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P21">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q21">
-        <v>2839.10812053544</v>
+        <v>59.73573175166851</v>
       </c>
       <c r="R21">
-        <v>17034.64872321264</v>
+        <v>358.4143905100111</v>
       </c>
       <c r="S21">
-        <v>0.07946440970418124</v>
+        <v>0.001885357026292213</v>
       </c>
       <c r="T21">
-        <v>0.05566871504755713</v>
+        <v>0.001263124960091088</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H22">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I22">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J22">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.06930366666666667</v>
+        <v>0.2433346666666667</v>
       </c>
       <c r="N22">
-        <v>0.207911</v>
+        <v>0.730004</v>
       </c>
       <c r="O22">
-        <v>0.0001844138843618826</v>
+        <v>0.0006441701120846545</v>
       </c>
       <c r="P22">
-        <v>0.0001844379559408913</v>
+        <v>0.0006447102349388058</v>
       </c>
       <c r="Q22">
-        <v>0.06323548381577777</v>
+        <v>0.3299568601951111</v>
       </c>
       <c r="R22">
-        <v>0.569119354342</v>
+        <v>2.969611741756</v>
       </c>
       <c r="S22">
-        <v>1.769911599150865E-06</v>
+        <v>1.041397613288289E-05</v>
       </c>
       <c r="T22">
-        <v>1.859864777941803E-06</v>
+        <v>1.046551369618292E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H23">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I23">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J23">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.934284</v>
       </c>
       <c r="O23">
-        <v>0.000828695651202472</v>
+        <v>0.000824430864760877</v>
       </c>
       <c r="P23">
-        <v>0.000828803821001677</v>
+        <v>0.0008251221323986817</v>
       </c>
       <c r="Q23">
-        <v>0.2841595719386666</v>
+        <v>0.4222900356306666</v>
       </c>
       <c r="R23">
-        <v>2.557436147448</v>
+        <v>3.800610320676</v>
       </c>
       <c r="S23">
-        <v>7.953403564511099E-06</v>
+        <v>1.332816159546297E-05</v>
       </c>
       <c r="T23">
-        <v>8.357623714928885E-06</v>
+        <v>1.339412112553433E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H24">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I24">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J24">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>168.931335</v>
+        <v>318.203888</v>
       </c>
       <c r="N24">
-        <v>506.794005</v>
+        <v>954.611664</v>
       </c>
       <c r="O24">
-        <v>0.4495185489626107</v>
+        <v>0.8423684015377977</v>
       </c>
       <c r="P24">
-        <v>0.4495772247033482</v>
+        <v>0.843074709416338</v>
       </c>
       <c r="Q24">
-        <v>154.13981992829</v>
+        <v>431.4780019822773</v>
       </c>
       <c r="R24">
-        <v>1387.25837935461</v>
+        <v>3883.302017840496</v>
       </c>
       <c r="S24">
-        <v>0.004314252674604141</v>
+        <v>0.01361814878420887</v>
       </c>
       <c r="T24">
-        <v>0.004533518282205183</v>
+        <v>0.0136855434273346</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H25">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I25">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J25">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.1471425</v>
+        <v>0.9494075</v>
       </c>
       <c r="N25">
-        <v>0.294285</v>
+        <v>1.898815</v>
       </c>
       <c r="O25">
-        <v>0.0003915394564941487</v>
+        <v>0.002513328429799062</v>
       </c>
       <c r="P25">
-        <v>0.000261060376142028</v>
+        <v>0.00167695720126921</v>
       </c>
       <c r="Q25">
-        <v>0.134258800795</v>
+        <v>1.287377265380833</v>
       </c>
       <c r="R25">
-        <v>0.80555280477</v>
+        <v>7.724263592284999</v>
       </c>
       <c r="S25">
-        <v>3.757798540886093E-06</v>
+        <v>4.063172412225142E-05</v>
       </c>
       <c r="T25">
-        <v>2.632522118486292E-06</v>
+        <v>2.722187055004845E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.9124406666666666</v>
+        <v>1.355979666666667</v>
       </c>
       <c r="H26">
-        <v>2.737322</v>
+        <v>4.067939</v>
       </c>
       <c r="I26">
-        <v>0.009597496442717393</v>
+        <v>0.01616650002463063</v>
       </c>
       <c r="J26">
-        <v>0.0100839589576554</v>
+        <v>0.01623289522800313</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>206.345828</v>
+        <v>58.041021</v>
       </c>
       <c r="N26">
-        <v>619.0374839999999</v>
+        <v>174.123063</v>
       </c>
       <c r="O26">
-        <v>0.5490768020453307</v>
+        <v>0.1536496690555577</v>
       </c>
       <c r="P26">
-        <v>0.5491484731435671</v>
+        <v>0.1537785010150554</v>
       </c>
       <c r="Q26">
-        <v>188.2783248642053</v>
+        <v>78.70244430857299</v>
       </c>
       <c r="R26">
-        <v>1694.504923777848</v>
+        <v>708.321998777157</v>
       </c>
       <c r="S26">
-        <v>0.005269762654408703</v>
+        <v>0.002483977378571163</v>
       </c>
       <c r="T26">
-        <v>0.00553759066483886</v>
+        <v>0.002496270295296767</v>
       </c>
     </row>
   </sheetData>
